--- a/Utilities/Table Excel Files/Tbl_LOGICollectionsManagementReport.xlsx
+++ b/Utilities/Table Excel Files/Tbl_LOGICollectionsManagementReport.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Tbl_LOGICollectionsManagementRe"/>
-    <sheet r:id="rId4" name="Tbl_LOGICollectionsManagementR1" sheetId="2"/>
+    <sheet r:id="rId4" sheetId="2" name="Tbl_LOGICollectionsManagementR1"/>
+    <sheet r:id="rId5" name="Tbl_LOGICollectionsManagementR2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="Tbl_LOGICollectionsManagementReport">'Tbl_LOGICollectionsManagementR1'!$A$1:$W$1</definedName>
+    <definedName name="Tbl_LOGICollectionsManagementReport">'Tbl_LOGICollectionsManagementR2'!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -604,4 +605,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Customer Number</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Sales Channel</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Oracle CL</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Trade Ins CL</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Trade Insurance</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Total AR</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Securities</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Net Exposure</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Current AR</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Total Overdue</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Total Over 90 days</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Total Over 180 days</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Forward Balance (in 2 week)</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>CL % USED</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Risk</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Amount Scheduled for this Quarter</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>Collector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>